--- a/backend/uploads/import_nilai/nilai.xlsx
+++ b/backend/uploads/import_nilai/nilai.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
   <si>
     <t>UNIVERSITAS SEBELAS MARET</t>
   </si>
@@ -87,12 +87,6 @@
   </si>
   <si>
     <t>CPMK3</t>
-  </si>
-  <si>
-    <t>CPMK4</t>
-  </si>
-  <si>
-    <t>CPMK5</t>
   </si>
   <si>
     <t>I0416014</t>
@@ -786,14 +780,14 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="B12" sqref="B12:C12"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="3.5703125" customWidth="true" style="0"/>
     <col min="2" max="2" width="17.42578125" customWidth="true" style="0"/>
-    <col min="3" max="3" width="21.140625" customWidth="true" style="0"/>
+    <col min="3" max="3" width="29.85546875" customWidth="true" style="0"/>
     <col min="4" max="4" width="8.28515625" customWidth="true" style="0"/>
     <col min="5" max="5" width="8.28515625" customWidth="true" style="0"/>
     <col min="6" max="6" width="8.28515625" customWidth="true" style="0"/>
@@ -959,22 +953,18 @@
       <c r="F14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -982,10 +972,10 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -993,10 +983,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1004,10 +994,10 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1015,10 +1005,10 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1026,10 +1016,10 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1037,10 +1027,10 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1048,10 +1038,10 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1059,10 +1049,10 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1070,10 +1060,10 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1081,10 +1071,10 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1092,10 +1082,10 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1103,10 +1093,10 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1114,10 +1104,10 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1125,10 +1115,10 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1136,10 +1126,10 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1147,10 +1137,10 @@
         <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1158,10 +1148,10 @@
         <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1169,10 +1159,10 @@
         <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1180,10 +1170,10 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1191,10 +1181,10 @@
         <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1202,10 +1192,10 @@
         <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1213,10 +1203,10 @@
         <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1224,10 +1214,10 @@
         <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1235,10 +1225,10 @@
         <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1246,10 +1236,10 @@
         <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1257,10 +1247,10 @@
         <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1268,10 +1258,10 @@
         <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1279,10 +1269,10 @@
         <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1290,10 +1280,10 @@
         <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1301,10 +1291,10 @@
         <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1312,10 +1302,10 @@
         <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1323,10 +1313,10 @@
         <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1334,10 +1324,10 @@
         <v>34</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1345,10 +1335,10 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/backend/uploads/import_nilai/nilai.xlsx
+++ b/backend/uploads/import_nilai/nilai.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
   <si>
     <t>UNIVERSITAS SEBELAS MARET</t>
   </si>
@@ -44,13 +44,13 @@
     <t>Kode Mata Kuliah</t>
   </si>
   <si>
-    <t>TM-11201-20</t>
+    <t>EE0102-19</t>
   </si>
   <si>
     <t>Nama Mata Kuliah</t>
   </si>
   <si>
-    <t>Agama</t>
+    <t>Fisika Dasar I</t>
   </si>
   <si>
     <t>Kelas</t>
@@ -62,10 +62,10 @@
     <t>Pengampu</t>
   </si>
   <si>
-    <t>Abdul Malik S.S., M.Hum</t>
-  </si>
-  <si>
-    <t>OITEmzrdecrvW/1vVNYUuA==</t>
+    <t>Hari Maghfiroh M.Eng.</t>
+  </si>
+  <si>
+    <t>1GIVCm/J6Uq5zmYWb5jvzA==</t>
   </si>
   <si>
     <t>No</t>
@@ -89,214 +89,223 @@
     <t>CPMK3</t>
   </si>
   <si>
-    <t>I0416014</t>
-  </si>
-  <si>
-    <t>Aryo Yuwono Hasbi</t>
-  </si>
-  <si>
-    <t>I0416058</t>
-  </si>
-  <si>
-    <t>Muhammad Iqbal Nurri</t>
-  </si>
-  <si>
-    <t>I0417021</t>
-  </si>
-  <si>
-    <t>Bhimo Ageng Tribhuwana</t>
-  </si>
-  <si>
-    <t>I0417031</t>
-  </si>
-  <si>
-    <t>Fatih Auliya Ghalib</t>
-  </si>
-  <si>
-    <t>I0417040</t>
-  </si>
-  <si>
-    <t>Hanna Nursya`Bani</t>
-  </si>
-  <si>
-    <t>I0417057</t>
-  </si>
-  <si>
-    <t>Muhammad Faiz Dzulfiqar</t>
-  </si>
-  <si>
-    <t>I0417063</t>
-  </si>
-  <si>
-    <t>Muhammad Rifqi Devino</t>
-  </si>
-  <si>
-    <t>I0418031</t>
-  </si>
-  <si>
-    <t>Farhaan Galih Wijayanto</t>
-  </si>
-  <si>
-    <t>I0418037</t>
-  </si>
-  <si>
-    <t>Hananta Diatmaja</t>
-  </si>
-  <si>
-    <t>I0419001</t>
-  </si>
-  <si>
-    <t>Abdurrahman Hanif</t>
-  </si>
-  <si>
-    <t>I0419002</t>
-  </si>
-  <si>
-    <t>Adrian Triatmojo</t>
-  </si>
-  <si>
-    <t>I0419011</t>
-  </si>
-  <si>
-    <t>Aly Farhan</t>
-  </si>
-  <si>
-    <t>I0419013</t>
-  </si>
-  <si>
-    <t>Andika Putra Pramudita</t>
-  </si>
-  <si>
-    <t>I0419033</t>
-  </si>
-  <si>
-    <t>Fiandysa Damareta</t>
-  </si>
-  <si>
-    <t>I0419034</t>
-  </si>
-  <si>
-    <t>Fuad Alfandy</t>
-  </si>
-  <si>
-    <t>I0419037</t>
-  </si>
-  <si>
-    <t>Hanifa Delfiera</t>
-  </si>
-  <si>
-    <t>I0419048</t>
-  </si>
-  <si>
-    <t>Kelvin Sianturi</t>
-  </si>
-  <si>
-    <t>I0419052</t>
-  </si>
-  <si>
-    <t>Maulana Fakhri Masykur</t>
-  </si>
-  <si>
-    <t>I0419059</t>
-  </si>
-  <si>
-    <t>Muhammad Budi Utama</t>
-  </si>
-  <si>
-    <t>I0419063</t>
-  </si>
-  <si>
-    <t>Muhammad Ilham Sholehuddin</t>
-  </si>
-  <si>
-    <t>I0419067</t>
-  </si>
-  <si>
-    <t>Muhammad Ridwan Faza</t>
-  </si>
-  <si>
-    <t>I0419068</t>
-  </si>
-  <si>
-    <t>Muhammad Rizaqshal Finanda</t>
-  </si>
-  <si>
-    <t>I0419069</t>
-  </si>
-  <si>
-    <t>Mukhammad Afit Lutfi</t>
-  </si>
-  <si>
-    <t>I0419074</t>
-  </si>
-  <si>
-    <t>Prayoga Wira Adie</t>
-  </si>
-  <si>
-    <t>I0419075</t>
-  </si>
-  <si>
-    <t>Putri Nurfadilah</t>
-  </si>
-  <si>
-    <t>I0419077</t>
-  </si>
-  <si>
-    <t>Rafi Kurnia Yahya</t>
-  </si>
-  <si>
-    <t>I0419078</t>
-  </si>
-  <si>
-    <t>Rafif Radityo</t>
-  </si>
-  <si>
-    <t>I0419082</t>
-  </si>
-  <si>
-    <t>Rayyan Quraisy Bahasuan</t>
-  </si>
-  <si>
-    <t>I0419090</t>
-  </si>
-  <si>
-    <t>Sekar Gading Happy Hapsari</t>
-  </si>
-  <si>
-    <t>I0419094</t>
-  </si>
-  <si>
-    <t>Treza Daffa Ardy</t>
-  </si>
-  <si>
-    <t>I0419097</t>
-  </si>
-  <si>
-    <t>Wishnu Dwi Prasetyo</t>
-  </si>
-  <si>
-    <t>I0419099</t>
-  </si>
-  <si>
-    <t>Yudin Joko Prasojo</t>
-  </si>
-  <si>
-    <t>I0419100</t>
-  </si>
-  <si>
-    <t>Zubara Al Hadiiddiin</t>
-  </si>
-  <si>
-    <t>I0419101</t>
-  </si>
-  <si>
-    <t>Luis Correia Soares</t>
-  </si>
-  <si>
-    <t>I0419102</t>
-  </si>
-  <si>
-    <t>Oldegar Luis Xavier Soares</t>
+    <t>CPMK4</t>
+  </si>
+  <si>
+    <t>I0715021</t>
+  </si>
+  <si>
+    <t>Mohammad Izzul Mukhtar</t>
+  </si>
+  <si>
+    <t>I0717001</t>
+  </si>
+  <si>
+    <t>Aditya Pratama</t>
+  </si>
+  <si>
+    <t>I0717002</t>
+  </si>
+  <si>
+    <t>Agung Budi Utomo</t>
+  </si>
+  <si>
+    <t>I0717004</t>
+  </si>
+  <si>
+    <t>Alvin Ichwannur Ridho</t>
+  </si>
+  <si>
+    <t>I0717005</t>
+  </si>
+  <si>
+    <t>Arif Wibowo</t>
+  </si>
+  <si>
+    <t>I0717006</t>
+  </si>
+  <si>
+    <t>Athaya Cantia Putri</t>
+  </si>
+  <si>
+    <t>I0717007</t>
+  </si>
+  <si>
+    <t>Attar Al Mufashal Rasyid</t>
+  </si>
+  <si>
+    <t>I0717008</t>
+  </si>
+  <si>
+    <t>Aulia Vici Yunitasari</t>
+  </si>
+  <si>
+    <t>I0717009</t>
+  </si>
+  <si>
+    <t>Bakasrian Fericoari</t>
+  </si>
+  <si>
+    <t>I0717010</t>
+  </si>
+  <si>
+    <t>Banu Maheswara</t>
+  </si>
+  <si>
+    <t>I0717011</t>
+  </si>
+  <si>
+    <t>Bayhaqi Irfani</t>
+  </si>
+  <si>
+    <t>I0717012</t>
+  </si>
+  <si>
+    <t>Berlianne Shanaza Andriany</t>
+  </si>
+  <si>
+    <t>I0717013</t>
+  </si>
+  <si>
+    <t>Bima Damar Jati</t>
+  </si>
+  <si>
+    <t>I0717014</t>
+  </si>
+  <si>
+    <t>Bintar Yudo Sadewo</t>
+  </si>
+  <si>
+    <t>I0717015</t>
+  </si>
+  <si>
+    <t>Fahmi Ismail</t>
+  </si>
+  <si>
+    <t>I0717016</t>
+  </si>
+  <si>
+    <t>Faishal Hanifan Ma`Ruf</t>
+  </si>
+  <si>
+    <t>I0717017</t>
+  </si>
+  <si>
+    <t>Gilang Satria Ajie</t>
+  </si>
+  <si>
+    <t>I0717018</t>
+  </si>
+  <si>
+    <t>Hanifah Yulia</t>
+  </si>
+  <si>
+    <t>I0717021</t>
+  </si>
+  <si>
+    <t>Hisbullah Ahmad Fathoni</t>
+  </si>
+  <si>
+    <t>I0717022</t>
+  </si>
+  <si>
+    <t>Ivan Robi Septian</t>
+  </si>
+  <si>
+    <t>I0717023</t>
+  </si>
+  <si>
+    <t>Kevin Dwiyanto Saputra</t>
+  </si>
+  <si>
+    <t>I0717024</t>
+  </si>
+  <si>
+    <t>M. Iqbal Zidny</t>
+  </si>
+  <si>
+    <t>I0717025</t>
+  </si>
+  <si>
+    <t>M. Maulana Yusuf</t>
+  </si>
+  <si>
+    <t>I0717026</t>
+  </si>
+  <si>
+    <t>Mohammad Raihan H.</t>
+  </si>
+  <si>
+    <t>I0717027</t>
+  </si>
+  <si>
+    <t>Muhammad Al Hamid</t>
+  </si>
+  <si>
+    <t>I0717028</t>
+  </si>
+  <si>
+    <t>Muhammad Ikyu Arqie Ramadhan</t>
+  </si>
+  <si>
+    <t>I0717029</t>
+  </si>
+  <si>
+    <t>Muhammad Renaldy Darmawan</t>
+  </si>
+  <si>
+    <t>I0717030</t>
+  </si>
+  <si>
+    <t>Muhammad Rifai</t>
+  </si>
+  <si>
+    <t>I0717031</t>
+  </si>
+  <si>
+    <t>Muhammad Rifyal Abubakar</t>
+  </si>
+  <si>
+    <t>I0717032</t>
+  </si>
+  <si>
+    <t>Muhammad Rizqi Subeno</t>
+  </si>
+  <si>
+    <t>I0717033</t>
+  </si>
+  <si>
+    <t>Muhammad Wakhid Wardani</t>
+  </si>
+  <si>
+    <t>I0717035</t>
+  </si>
+  <si>
+    <t>Nanda Hafidz Rivanda</t>
+  </si>
+  <si>
+    <t>I0717037</t>
+  </si>
+  <si>
+    <t>Rifqi Paradisa</t>
+  </si>
+  <si>
+    <t>I0717038</t>
+  </si>
+  <si>
+    <t>Riski Rama Kusuma</t>
+  </si>
+  <si>
+    <t>I0717039</t>
+  </si>
+  <si>
+    <t>Sony Adyatama</t>
+  </si>
+  <si>
+    <t>I0717041</t>
+  </si>
+  <si>
+    <t>Weldino Panji Kurniadi</t>
   </si>
 </sst>
 </file>
@@ -777,10 +786,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="C5" sqref="C5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -838,7 +847,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="9">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -953,7 +962,9 @@
       <c r="F14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8">
@@ -961,10 +972,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -972,10 +983,10 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -983,10 +994,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -994,10 +1005,10 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1005,10 +1016,10 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1016,10 +1027,10 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1027,10 +1038,10 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1038,10 +1049,10 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1049,10 +1060,10 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1060,10 +1071,10 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1071,10 +1082,10 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1082,10 +1093,10 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1093,10 +1104,10 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1104,10 +1115,10 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1115,10 +1126,10 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1126,10 +1137,10 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1137,10 +1148,10 @@
         <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1148,10 +1159,10 @@
         <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1159,10 +1170,10 @@
         <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1170,10 +1181,10 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1181,10 +1192,10 @@
         <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1192,10 +1203,10 @@
         <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1203,10 +1214,10 @@
         <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1214,10 +1225,10 @@
         <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1225,10 +1236,10 @@
         <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1236,10 +1247,10 @@
         <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1247,10 +1258,10 @@
         <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1258,10 +1269,10 @@
         <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1269,10 +1280,10 @@
         <v>29</v>
       </c>
       <c r="B43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1280,10 +1291,10 @@
         <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1291,10 +1302,10 @@
         <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1302,10 +1313,10 @@
         <v>32</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1313,10 +1324,10 @@
         <v>33</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1324,10 +1335,10 @@
         <v>34</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1335,10 +1346,21 @@
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>36</v>
+      </c>
+      <c r="B50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/backend/uploads/import_nilai/nilai.xlsx
+++ b/backend/uploads/import_nilai/nilai.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
   <si>
     <t>UNIVERSITAS SEBELAS MARET</t>
   </si>
@@ -92,12 +92,6 @@
     <t>CPMK4</t>
   </si>
   <si>
-    <t>I0715021</t>
-  </si>
-  <si>
-    <t>Mohammad Izzul Mukhtar</t>
-  </si>
-  <si>
     <t>I0717001</t>
   </si>
   <si>
@@ -300,12 +294,6 @@
   </si>
   <si>
     <t>Sony Adyatama</t>
-  </si>
-  <si>
-    <t>I0717041</t>
-  </si>
-  <si>
-    <t>Weldino Panji Kurniadi</t>
   </si>
 </sst>
 </file>
@@ -786,7 +774,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
       <selection activeCell="C5" sqref="C5:H5"/>
@@ -1339,28 +1327,6 @@
       </c>
       <c r="C48" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49">
-        <v>35</v>
-      </c>
-      <c r="B49" t="s">
-        <v>93</v>
-      </c>
-      <c r="C49" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50">
-        <v>36</v>
-      </c>
-      <c r="B50" t="s">
-        <v>95</v>
-      </c>
-      <c r="C50" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/backend/uploads/import_nilai/nilai.xlsx
+++ b/backend/uploads/import_nilai/nilai.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
   <si>
     <t>UNIVERSITAS SEBELAS MARET</t>
   </si>
@@ -44,13 +44,13 @@
     <t>Kode Mata Kuliah</t>
   </si>
   <si>
-    <t>EE0102-19</t>
+    <t>EE0101-19</t>
   </si>
   <si>
     <t>Nama Mata Kuliah</t>
   </si>
   <si>
-    <t>Fisika Dasar I</t>
+    <t>Kalkulus I</t>
   </si>
   <si>
     <t>Kelas</t>
@@ -62,10 +62,10 @@
     <t>Pengampu</t>
   </si>
   <si>
-    <t>Hari Maghfiroh M.Eng.</t>
-  </si>
-  <si>
-    <t>1GIVCm/J6Uq5zmYWb5jvzA==</t>
+    <t>Dr.Ir. Augustinus Sujono M.T.</t>
+  </si>
+  <si>
+    <t>9vbZijJ3Q+WxO+coLS2cRw==</t>
   </si>
   <si>
     <t>No</t>
@@ -92,6 +92,15 @@
     <t>CPMK4</t>
   </si>
   <si>
+    <t>CPMK5</t>
+  </si>
+  <si>
+    <t>I0715021</t>
+  </si>
+  <si>
+    <t>Mohammad Izzul Mukhtar</t>
+  </si>
+  <si>
     <t>I0717001</t>
   </si>
   <si>
@@ -252,48 +261,6 @@
   </si>
   <si>
     <t>Muhammad Rifai</t>
-  </si>
-  <si>
-    <t>I0717031</t>
-  </si>
-  <si>
-    <t>Muhammad Rifyal Abubakar</t>
-  </si>
-  <si>
-    <t>I0717032</t>
-  </si>
-  <si>
-    <t>Muhammad Rizqi Subeno</t>
-  </si>
-  <si>
-    <t>I0717033</t>
-  </si>
-  <si>
-    <t>Muhammad Wakhid Wardani</t>
-  </si>
-  <si>
-    <t>I0717035</t>
-  </si>
-  <si>
-    <t>Nanda Hafidz Rivanda</t>
-  </si>
-  <si>
-    <t>I0717037</t>
-  </si>
-  <si>
-    <t>Rifqi Paradisa</t>
-  </si>
-  <si>
-    <t>I0717038</t>
-  </si>
-  <si>
-    <t>Riski Rama Kusuma</t>
-  </si>
-  <si>
-    <t>I0717039</t>
-  </si>
-  <si>
-    <t>Sony Adyatama</t>
   </si>
 </sst>
 </file>
@@ -774,7 +741,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
       <selection activeCell="C5" sqref="C5:H5"/>
@@ -835,7 +802,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="9">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -953,17 +920,19 @@
       <c r="G14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -971,10 +940,10 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -982,10 +951,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -993,10 +962,10 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1004,10 +973,10 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1015,10 +984,10 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1026,10 +995,10 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1037,10 +1006,10 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1048,10 +1017,10 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1059,10 +1028,10 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1070,10 +1039,10 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1081,10 +1050,10 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1092,10 +1061,10 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1103,10 +1072,10 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1114,10 +1083,10 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1125,10 +1094,10 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1136,10 +1105,10 @@
         <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1147,10 +1116,10 @@
         <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1158,10 +1127,10 @@
         <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1169,10 +1138,10 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1180,10 +1149,10 @@
         <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1191,10 +1160,10 @@
         <v>22</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1202,10 +1171,10 @@
         <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1213,10 +1182,10 @@
         <v>24</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1224,10 +1193,10 @@
         <v>25</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1235,10 +1204,10 @@
         <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1246,10 +1215,10 @@
         <v>27</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1257,76 +1226,10 @@
         <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43">
-        <v>29</v>
-      </c>
-      <c r="B43" t="s">
         <v>81</v>
-      </c>
-      <c r="C43" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44">
-        <v>30</v>
-      </c>
-      <c r="B44" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45">
-        <v>31</v>
-      </c>
-      <c r="B45" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46">
-        <v>32</v>
-      </c>
-      <c r="B46" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47">
-        <v>33</v>
-      </c>
-      <c r="B47" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48">
-        <v>34</v>
-      </c>
-      <c r="B48" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/backend/uploads/import_nilai/nilai.xlsx
+++ b/backend/uploads/import_nilai/nilai.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
   <si>
     <t>UNIVERSITAS SEBELAS MARET</t>
   </si>
@@ -44,13 +44,13 @@
     <t>Kode Mata Kuliah</t>
   </si>
   <si>
-    <t>EE0101-19</t>
+    <t>EE0102-19</t>
   </si>
   <si>
     <t>Nama Mata Kuliah</t>
   </si>
   <si>
-    <t>Kalkulus I</t>
+    <t>Fisika Dasar I</t>
   </si>
   <si>
     <t>Kelas</t>
@@ -62,10 +62,10 @@
     <t>Pengampu</t>
   </si>
   <si>
-    <t>Dr.Ir. Augustinus Sujono M.T.</t>
-  </si>
-  <si>
-    <t>9vbZijJ3Q+WxO+coLS2cRw==</t>
+    <t>Hari Maghfiroh M.Eng.</t>
+  </si>
+  <si>
+    <t>1GIVCm/J6Uq5zmYWb5jvzA==</t>
   </si>
   <si>
     <t>No</t>
@@ -92,7 +92,154 @@
     <t>CPMK4</t>
   </si>
   <si>
-    <t>CPMK5</t>
+    <t>I0717002</t>
+  </si>
+  <si>
+    <t>Agung Budi Utomo</t>
+  </si>
+  <si>
+    <t>I0717004</t>
+  </si>
+  <si>
+    <t>Alvin Ichwannur Ridho</t>
+  </si>
+  <si>
+    <t>I0717005</t>
+  </si>
+  <si>
+    <t>Arif Wibowo</t>
+  </si>
+  <si>
+    <t>I0717008</t>
+  </si>
+  <si>
+    <t>Aulia Vici Yunitasari</t>
+  </si>
+  <si>
+    <t>I0717009</t>
+  </si>
+  <si>
+    <t>Bakasrian Fericoari</t>
+  </si>
+  <si>
+    <t>I0717010</t>
+  </si>
+  <si>
+    <t>Banu Maheswara</t>
+  </si>
+  <si>
+    <t>I0717011</t>
+  </si>
+  <si>
+    <t>Bayhaqi Irfani</t>
+  </si>
+  <si>
+    <t>I0717012</t>
+  </si>
+  <si>
+    <t>Berlianne Shanaza Andriany</t>
+  </si>
+  <si>
+    <t>I0717013</t>
+  </si>
+  <si>
+    <t>Bima Damar Jati</t>
+  </si>
+  <si>
+    <t>I0717014</t>
+  </si>
+  <si>
+    <t>Bintar Yudo Sadewo</t>
+  </si>
+  <si>
+    <t>I0717015</t>
+  </si>
+  <si>
+    <t>Fahmi Ismail</t>
+  </si>
+  <si>
+    <t>I0717016</t>
+  </si>
+  <si>
+    <t>Faishal Hanifan Ma`Ruf</t>
+  </si>
+  <si>
+    <t>I0717017</t>
+  </si>
+  <si>
+    <t>Gilang Satria Ajie</t>
+  </si>
+  <si>
+    <t>I0717018</t>
+  </si>
+  <si>
+    <t>Hanifah Yulia</t>
+  </si>
+  <si>
+    <t>I0717021</t>
+  </si>
+  <si>
+    <t>Hisbullah Ahmad Fathoni</t>
+  </si>
+  <si>
+    <t>I0717022</t>
+  </si>
+  <si>
+    <t>Ivan Robi Septian</t>
+  </si>
+  <si>
+    <t>I0717023</t>
+  </si>
+  <si>
+    <t>Kevin Dwiyanto Saputra</t>
+  </si>
+  <si>
+    <t>I0717024</t>
+  </si>
+  <si>
+    <t>M. Iqbal Zidny</t>
+  </si>
+  <si>
+    <t>I0717025</t>
+  </si>
+  <si>
+    <t>M. Maulana Yusuf</t>
+  </si>
+  <si>
+    <t>I0717026</t>
+  </si>
+  <si>
+    <t>Mohammad Raihan H.</t>
+  </si>
+  <si>
+    <t>I0717027</t>
+  </si>
+  <si>
+    <t>Muhammad Al Hamid</t>
+  </si>
+  <si>
+    <t>I0717028</t>
+  </si>
+  <si>
+    <t>Muhammad Ikyu Arqie Ramadhan</t>
+  </si>
+  <si>
+    <t>I0717029</t>
+  </si>
+  <si>
+    <t>Muhammad Renaldy Darmawan</t>
+  </si>
+  <si>
+    <t>I0717030</t>
+  </si>
+  <si>
+    <t>Muhammad Rifai</t>
+  </si>
+  <si>
+    <t>I0717037</t>
+  </si>
+  <si>
+    <t>Rifqi Paradisa</t>
   </si>
   <si>
     <t>I0715021</t>
@@ -107,24 +254,6 @@
     <t>Aditya Pratama</t>
   </si>
   <si>
-    <t>I0717002</t>
-  </si>
-  <si>
-    <t>Agung Budi Utomo</t>
-  </si>
-  <si>
-    <t>I0717004</t>
-  </si>
-  <si>
-    <t>Alvin Ichwannur Ridho</t>
-  </si>
-  <si>
-    <t>I0717005</t>
-  </si>
-  <si>
-    <t>Arif Wibowo</t>
-  </si>
-  <si>
     <t>I0717006</t>
   </si>
   <si>
@@ -137,130 +266,46 @@
     <t>Attar Al Mufashal Rasyid</t>
   </si>
   <si>
-    <t>I0717008</t>
-  </si>
-  <si>
-    <t>Aulia Vici Yunitasari</t>
-  </si>
-  <si>
-    <t>I0717009</t>
-  </si>
-  <si>
-    <t>Bakasrian Fericoari</t>
-  </si>
-  <si>
-    <t>I0717010</t>
-  </si>
-  <si>
-    <t>Banu Maheswara</t>
-  </si>
-  <si>
-    <t>I0717011</t>
-  </si>
-  <si>
-    <t>Bayhaqi Irfani</t>
-  </si>
-  <si>
-    <t>I0717012</t>
-  </si>
-  <si>
-    <t>Berlianne Shanaza Andriany</t>
-  </si>
-  <si>
-    <t>I0717013</t>
-  </si>
-  <si>
-    <t>Bima Damar Jati</t>
-  </si>
-  <si>
-    <t>I0717014</t>
-  </si>
-  <si>
-    <t>Bintar Yudo Sadewo</t>
-  </si>
-  <si>
-    <t>I0717015</t>
-  </si>
-  <si>
-    <t>Fahmi Ismail</t>
-  </si>
-  <si>
-    <t>I0717016</t>
-  </si>
-  <si>
-    <t>Faishal Hanifan Ma`Ruf</t>
-  </si>
-  <si>
-    <t>I0717017</t>
-  </si>
-  <si>
-    <t>Gilang Satria Ajie</t>
-  </si>
-  <si>
-    <t>I0717018</t>
-  </si>
-  <si>
-    <t>Hanifah Yulia</t>
-  </si>
-  <si>
-    <t>I0717021</t>
-  </si>
-  <si>
-    <t>Hisbullah Ahmad Fathoni</t>
-  </si>
-  <si>
-    <t>I0717022</t>
-  </si>
-  <si>
-    <t>Ivan Robi Septian</t>
-  </si>
-  <si>
-    <t>I0717023</t>
-  </si>
-  <si>
-    <t>Kevin Dwiyanto Saputra</t>
-  </si>
-  <si>
-    <t>I0717024</t>
-  </si>
-  <si>
-    <t>M. Iqbal Zidny</t>
-  </si>
-  <si>
-    <t>I0717025</t>
-  </si>
-  <si>
-    <t>M. Maulana Yusuf</t>
-  </si>
-  <si>
-    <t>I0717026</t>
-  </si>
-  <si>
-    <t>Mohammad Raihan H.</t>
-  </si>
-  <si>
-    <t>I0717027</t>
-  </si>
-  <si>
-    <t>Muhammad Al Hamid</t>
-  </si>
-  <si>
-    <t>I0717028</t>
-  </si>
-  <si>
-    <t>Muhammad Ikyu Arqie Ramadhan</t>
-  </si>
-  <si>
-    <t>I0717029</t>
-  </si>
-  <si>
-    <t>Muhammad Renaldy Darmawan</t>
-  </si>
-  <si>
-    <t>I0717030</t>
-  </si>
-  <si>
-    <t>Muhammad Rifai</t>
+    <t>I0717031</t>
+  </si>
+  <si>
+    <t>Muhammad Rifyal Abubakar</t>
+  </si>
+  <si>
+    <t>I0717032</t>
+  </si>
+  <si>
+    <t>Muhammad Rizqi Subeno</t>
+  </si>
+  <si>
+    <t>I0717033</t>
+  </si>
+  <si>
+    <t>Muhammad Wakhid Wardani</t>
+  </si>
+  <si>
+    <t>I0717035</t>
+  </si>
+  <si>
+    <t>Nanda Hafidz Rivanda</t>
+  </si>
+  <si>
+    <t>I0717038</t>
+  </si>
+  <si>
+    <t>Riski Rama Kusuma</t>
+  </si>
+  <si>
+    <t>I0717039</t>
+  </si>
+  <si>
+    <t>Sony Adyatama</t>
+  </si>
+  <si>
+    <t>I0717041</t>
+  </si>
+  <si>
+    <t>Weldino Panji Kurniadi</t>
   </si>
 </sst>
 </file>
@@ -741,7 +786,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
       <selection activeCell="C5" sqref="C5:H5"/>
@@ -802,7 +847,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="9">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -920,19 +965,17 @@
       <c r="G14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
         <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -940,10 +983,10 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
         <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -951,10 +994,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
         <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -962,10 +1005,10 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
         <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -973,10 +1016,10 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
         <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -984,10 +1027,10 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
         <v>36</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -995,10 +1038,10 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
         <v>38</v>
-      </c>
-      <c r="C21" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1006,10 +1049,10 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
         <v>40</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1017,10 +1060,10 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
         <v>42</v>
-      </c>
-      <c r="C23" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1028,10 +1071,10 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
         <v>44</v>
-      </c>
-      <c r="C24" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1039,10 +1082,10 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
         <v>46</v>
-      </c>
-      <c r="C25" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1050,10 +1093,10 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
         <v>48</v>
-      </c>
-      <c r="C26" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1061,10 +1104,10 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
         <v>50</v>
-      </c>
-      <c r="C27" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1072,10 +1115,10 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
         <v>52</v>
-      </c>
-      <c r="C28" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1083,10 +1126,10 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
         <v>54</v>
-      </c>
-      <c r="C29" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1094,10 +1137,10 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
         <v>56</v>
-      </c>
-      <c r="C30" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1105,10 +1148,10 @@
         <v>17</v>
       </c>
       <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
         <v>58</v>
-      </c>
-      <c r="C31" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1116,10 +1159,10 @@
         <v>18</v>
       </c>
       <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" t="s">
         <v>60</v>
-      </c>
-      <c r="C32" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1127,10 +1170,10 @@
         <v>19</v>
       </c>
       <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" t="s">
         <v>62</v>
-      </c>
-      <c r="C33" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1138,10 +1181,10 @@
         <v>20</v>
       </c>
       <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="s">
         <v>64</v>
-      </c>
-      <c r="C34" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1149,10 +1192,10 @@
         <v>21</v>
       </c>
       <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" t="s">
         <v>66</v>
-      </c>
-      <c r="C35" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1160,10 +1203,10 @@
         <v>22</v>
       </c>
       <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" t="s">
         <v>68</v>
-      </c>
-      <c r="C36" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1171,10 +1214,10 @@
         <v>23</v>
       </c>
       <c r="B37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" t="s">
         <v>70</v>
-      </c>
-      <c r="C37" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1182,10 +1225,10 @@
         <v>24</v>
       </c>
       <c r="B38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" t="s">
         <v>72</v>
-      </c>
-      <c r="C38" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1193,10 +1236,10 @@
         <v>25</v>
       </c>
       <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" t="s">
         <v>74</v>
-      </c>
-      <c r="C39" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1204,10 +1247,10 @@
         <v>26</v>
       </c>
       <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" t="s">
         <v>76</v>
-      </c>
-      <c r="C40" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1215,10 +1258,10 @@
         <v>27</v>
       </c>
       <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" t="s">
         <v>78</v>
-      </c>
-      <c r="C41" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1226,10 +1269,98 @@
         <v>28</v>
       </c>
       <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" t="s">
         <v>80</v>
       </c>
-      <c r="C42" t="s">
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>29</v>
+      </c>
+      <c r="B43" t="s">
         <v>81</v>
+      </c>
+      <c r="C43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>30</v>
+      </c>
+      <c r="B44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>31</v>
+      </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>32</v>
+      </c>
+      <c r="B46" t="s">
+        <v>87</v>
+      </c>
+      <c r="C46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>33</v>
+      </c>
+      <c r="B47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>34</v>
+      </c>
+      <c r="B48" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>35</v>
+      </c>
+      <c r="B49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>36</v>
+      </c>
+      <c r="B50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/backend/uploads/import_nilai/nilai.xlsx
+++ b/backend/uploads/import_nilai/nilai.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>UNIVERSITAS SEBELAS MARET</t>
   </si>
@@ -38,19 +38,19 @@
     <t>Semester</t>
   </si>
   <si>
-    <t>Ganjil</t>
+    <t>Genap</t>
   </si>
   <si>
     <t>Kode Mata Kuliah</t>
   </si>
   <si>
-    <t>EE0102-19</t>
+    <t>EE3604-19</t>
   </si>
   <si>
     <t>Nama Mata Kuliah</t>
   </si>
   <si>
-    <t>Fisika Dasar I</t>
+    <t>Topik Pilihan Komputer dan Telekomunikasi</t>
   </si>
   <si>
     <t>Kelas</t>
@@ -62,10 +62,10 @@
     <t>Pengampu</t>
   </si>
   <si>
-    <t>Hari Maghfiroh M.Eng.</t>
-  </si>
-  <si>
-    <t>1GIVCm/J6Uq5zmYWb5jvzA==</t>
+    <t>Muhammad Hamka Ibrahim St., M.Eng.</t>
+  </si>
+  <si>
+    <t>bcvbahse7y7SDj4g2oGx7g==</t>
   </si>
   <si>
     <t>No</t>
@@ -89,223 +89,10 @@
     <t>CPMK3</t>
   </si>
   <si>
-    <t>CPMK4</t>
-  </si>
-  <si>
-    <t>I0717002</t>
-  </si>
-  <si>
-    <t>Agung Budi Utomo</t>
-  </si>
-  <si>
-    <t>I0717004</t>
-  </si>
-  <si>
-    <t>Alvin Ichwannur Ridho</t>
-  </si>
-  <si>
-    <t>I0717005</t>
-  </si>
-  <si>
-    <t>Arif Wibowo</t>
-  </si>
-  <si>
-    <t>I0717008</t>
-  </si>
-  <si>
-    <t>Aulia Vici Yunitasari</t>
-  </si>
-  <si>
-    <t>I0717009</t>
-  </si>
-  <si>
-    <t>Bakasrian Fericoari</t>
-  </si>
-  <si>
-    <t>I0717010</t>
-  </si>
-  <si>
-    <t>Banu Maheswara</t>
-  </si>
-  <si>
-    <t>I0717011</t>
-  </si>
-  <si>
-    <t>Bayhaqi Irfani</t>
-  </si>
-  <si>
-    <t>I0717012</t>
-  </si>
-  <si>
-    <t>Berlianne Shanaza Andriany</t>
-  </si>
-  <si>
-    <t>I0717013</t>
-  </si>
-  <si>
-    <t>Bima Damar Jati</t>
-  </si>
-  <si>
-    <t>I0717014</t>
-  </si>
-  <si>
-    <t>Bintar Yudo Sadewo</t>
-  </si>
-  <si>
-    <t>I0717015</t>
-  </si>
-  <si>
-    <t>Fahmi Ismail</t>
-  </si>
-  <si>
-    <t>I0717016</t>
-  </si>
-  <si>
-    <t>Faishal Hanifan Ma`Ruf</t>
-  </si>
-  <si>
-    <t>I0717017</t>
-  </si>
-  <si>
-    <t>Gilang Satria Ajie</t>
-  </si>
-  <si>
-    <t>I0717018</t>
-  </si>
-  <si>
-    <t>Hanifah Yulia</t>
-  </si>
-  <si>
-    <t>I0717021</t>
-  </si>
-  <si>
-    <t>Hisbullah Ahmad Fathoni</t>
-  </si>
-  <si>
-    <t>I0717022</t>
-  </si>
-  <si>
-    <t>Ivan Robi Septian</t>
-  </si>
-  <si>
-    <t>I0717023</t>
-  </si>
-  <si>
-    <t>Kevin Dwiyanto Saputra</t>
-  </si>
-  <si>
-    <t>I0717024</t>
-  </si>
-  <si>
-    <t>M. Iqbal Zidny</t>
-  </si>
-  <si>
-    <t>I0717025</t>
-  </si>
-  <si>
-    <t>M. Maulana Yusuf</t>
-  </si>
-  <si>
-    <t>I0717026</t>
-  </si>
-  <si>
-    <t>Mohammad Raihan H.</t>
-  </si>
-  <si>
-    <t>I0717027</t>
-  </si>
-  <si>
-    <t>Muhammad Al Hamid</t>
-  </si>
-  <si>
-    <t>I0717028</t>
-  </si>
-  <si>
-    <t>Muhammad Ikyu Arqie Ramadhan</t>
-  </si>
-  <si>
-    <t>I0717029</t>
-  </si>
-  <si>
-    <t>Muhammad Renaldy Darmawan</t>
-  </si>
-  <si>
-    <t>I0717030</t>
-  </si>
-  <si>
-    <t>Muhammad Rifai</t>
-  </si>
-  <si>
-    <t>I0717037</t>
-  </si>
-  <si>
-    <t>Rifqi Paradisa</t>
-  </si>
-  <si>
-    <t>I0715021</t>
-  </si>
-  <si>
-    <t>Mohammad Izzul Mukhtar</t>
-  </si>
-  <si>
     <t>I0717001</t>
   </si>
   <si>
     <t>Aditya Pratama</t>
-  </si>
-  <si>
-    <t>I0717006</t>
-  </si>
-  <si>
-    <t>Athaya Cantia Putri</t>
-  </si>
-  <si>
-    <t>I0717007</t>
-  </si>
-  <si>
-    <t>Attar Al Mufashal Rasyid</t>
-  </si>
-  <si>
-    <t>I0717031</t>
-  </si>
-  <si>
-    <t>Muhammad Rifyal Abubakar</t>
-  </si>
-  <si>
-    <t>I0717032</t>
-  </si>
-  <si>
-    <t>Muhammad Rizqi Subeno</t>
-  </si>
-  <si>
-    <t>I0717033</t>
-  </si>
-  <si>
-    <t>Muhammad Wakhid Wardani</t>
-  </si>
-  <si>
-    <t>I0717035</t>
-  </si>
-  <si>
-    <t>Nanda Hafidz Rivanda</t>
-  </si>
-  <si>
-    <t>I0717038</t>
-  </si>
-  <si>
-    <t>Riski Rama Kusuma</t>
-  </si>
-  <si>
-    <t>I0717039</t>
-  </si>
-  <si>
-    <t>Sony Adyatama</t>
-  </si>
-  <si>
-    <t>I0717041</t>
-  </si>
-  <si>
-    <t>Weldino Panji Kurniadi</t>
   </si>
 </sst>
 </file>
@@ -786,7 +573,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
       <selection activeCell="C5" sqref="C5:H5"/>
@@ -847,7 +634,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="9">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -962,9 +749,7 @@
       <c r="F14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="G14" s="2"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8">
@@ -972,395 +757,10 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
         <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20">
-        <v>6</v>
-      </c>
-      <c r="B20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21">
-        <v>7</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23">
-        <v>9</v>
-      </c>
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24">
-        <v>10</v>
-      </c>
-      <c r="B24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25">
-        <v>11</v>
-      </c>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26">
-        <v>12</v>
-      </c>
-      <c r="B26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27">
-        <v>13</v>
-      </c>
-      <c r="B27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28">
-        <v>14</v>
-      </c>
-      <c r="B28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29">
-        <v>15</v>
-      </c>
-      <c r="B29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30">
-        <v>16</v>
-      </c>
-      <c r="B30" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31">
-        <v>17</v>
-      </c>
-      <c r="B31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32">
-        <v>18</v>
-      </c>
-      <c r="B32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33">
-        <v>19</v>
-      </c>
-      <c r="B33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34">
-        <v>20</v>
-      </c>
-      <c r="B34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35">
-        <v>21</v>
-      </c>
-      <c r="B35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36">
-        <v>22</v>
-      </c>
-      <c r="B36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37">
-        <v>23</v>
-      </c>
-      <c r="B37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38">
-        <v>24</v>
-      </c>
-      <c r="B38" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39">
-        <v>25</v>
-      </c>
-      <c r="B39" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40">
-        <v>26</v>
-      </c>
-      <c r="B40" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41">
-        <v>27</v>
-      </c>
-      <c r="B41" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42">
-        <v>28</v>
-      </c>
-      <c r="B42" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43">
-        <v>29</v>
-      </c>
-      <c r="B43" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44">
-        <v>30</v>
-      </c>
-      <c r="B44" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45">
-        <v>31</v>
-      </c>
-      <c r="B45" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46">
-        <v>32</v>
-      </c>
-      <c r="B46" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47">
-        <v>33</v>
-      </c>
-      <c r="B47" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48">
-        <v>34</v>
-      </c>
-      <c r="B48" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49">
-        <v>35</v>
-      </c>
-      <c r="B49" t="s">
-        <v>93</v>
-      </c>
-      <c r="C49" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50">
-        <v>36</v>
-      </c>
-      <c r="B50" t="s">
-        <v>95</v>
-      </c>
-      <c r="C50" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/backend/uploads/import_nilai/nilai.xlsx
+++ b/backend/uploads/import_nilai/nilai.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
   <si>
     <t>UNIVERSITAS SEBELAS MARET</t>
   </si>
@@ -38,19 +38,19 @@
     <t>Semester</t>
   </si>
   <si>
-    <t>Genap</t>
+    <t>Ganjil</t>
   </si>
   <si>
     <t>Kode Mata Kuliah</t>
   </si>
   <si>
-    <t>EE3604-19</t>
+    <t>EE0101-19</t>
   </si>
   <si>
     <t>Nama Mata Kuliah</t>
   </si>
   <si>
-    <t>Topik Pilihan Komputer dan Telekomunikasi</t>
+    <t>Kalkulus I</t>
   </si>
   <si>
     <t>Kelas</t>
@@ -62,10 +62,10 @@
     <t>Pengampu</t>
   </si>
   <si>
-    <t>Muhammad Hamka Ibrahim St., M.Eng.</t>
-  </si>
-  <si>
-    <t>bcvbahse7y7SDj4g2oGx7g==</t>
+    <t>Dr.Ir. Augustinus Sujono M.T.</t>
+  </si>
+  <si>
+    <t>9vbZijJ3Q+WxO+coLS2cRw==</t>
   </si>
   <si>
     <t>No</t>
@@ -89,10 +89,175 @@
     <t>CPMK3</t>
   </si>
   <si>
+    <t>CPMK4</t>
+  </si>
+  <si>
+    <t>I0715021</t>
+  </si>
+  <si>
+    <t>Mohammad Izzul Mukhtar</t>
+  </si>
+  <si>
     <t>I0717001</t>
   </si>
   <si>
     <t>Aditya Pratama</t>
+  </si>
+  <si>
+    <t>I0717002</t>
+  </si>
+  <si>
+    <t>Agung Budi Utomo</t>
+  </si>
+  <si>
+    <t>I0717004</t>
+  </si>
+  <si>
+    <t>Alvin Ichwannur Ridho</t>
+  </si>
+  <si>
+    <t>I0717005</t>
+  </si>
+  <si>
+    <t>Arif Wibowo</t>
+  </si>
+  <si>
+    <t>I0717006</t>
+  </si>
+  <si>
+    <t>Athaya Cantia Putri</t>
+  </si>
+  <si>
+    <t>I0717007</t>
+  </si>
+  <si>
+    <t>Attar Al Mufashal Rasyid</t>
+  </si>
+  <si>
+    <t>I0717008</t>
+  </si>
+  <si>
+    <t>Aulia Vici Yunitasari</t>
+  </si>
+  <si>
+    <t>I0717009</t>
+  </si>
+  <si>
+    <t>Bakasrian Fericoari</t>
+  </si>
+  <si>
+    <t>I0717010</t>
+  </si>
+  <si>
+    <t>Banu Maheswara</t>
+  </si>
+  <si>
+    <t>I0717011</t>
+  </si>
+  <si>
+    <t>Bayhaqi Irfani</t>
+  </si>
+  <si>
+    <t>I0717012</t>
+  </si>
+  <si>
+    <t>Berlianne Shanaza Andriany</t>
+  </si>
+  <si>
+    <t>I0717013</t>
+  </si>
+  <si>
+    <t>Bima Damar Jati</t>
+  </si>
+  <si>
+    <t>I0717014</t>
+  </si>
+  <si>
+    <t>Bintar Yudo Sadewo</t>
+  </si>
+  <si>
+    <t>I0717015</t>
+  </si>
+  <si>
+    <t>Fahmi Ismail</t>
+  </si>
+  <si>
+    <t>I0717016</t>
+  </si>
+  <si>
+    <t>Faishal Hanifan Ma`Ruf</t>
+  </si>
+  <si>
+    <t>I0717017</t>
+  </si>
+  <si>
+    <t>Gilang Satria Ajie</t>
+  </si>
+  <si>
+    <t>I0717018</t>
+  </si>
+  <si>
+    <t>Hanifah Yulia</t>
+  </si>
+  <si>
+    <t>I0717021</t>
+  </si>
+  <si>
+    <t>Hisbullah Ahmad Fathoni</t>
+  </si>
+  <si>
+    <t>I0717022</t>
+  </si>
+  <si>
+    <t>Ivan Robi Septian</t>
+  </si>
+  <si>
+    <t>I0717023</t>
+  </si>
+  <si>
+    <t>Kevin Dwiyanto Saputra</t>
+  </si>
+  <si>
+    <t>I0717024</t>
+  </si>
+  <si>
+    <t>M. Iqbal Zidny</t>
+  </si>
+  <si>
+    <t>I0717025</t>
+  </si>
+  <si>
+    <t>M. Maulana Yusuf</t>
+  </si>
+  <si>
+    <t>I0717026</t>
+  </si>
+  <si>
+    <t>Mohammad Raihan H.</t>
+  </si>
+  <si>
+    <t>I0717027</t>
+  </si>
+  <si>
+    <t>Muhammad Al Hamid</t>
+  </si>
+  <si>
+    <t>I0717028</t>
+  </si>
+  <si>
+    <t>Muhammad Ikyu Arqie Ramadhan</t>
+  </si>
+  <si>
+    <t>I0717029</t>
+  </si>
+  <si>
+    <t>Muhammad Renaldy Darmawan</t>
+  </si>
+  <si>
+    <t>I0717030</t>
+  </si>
+  <si>
+    <t>Muhammad Rifai</t>
   </si>
 </sst>
 </file>
@@ -573,7 +738,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
       <selection activeCell="C5" sqref="C5:H5"/>
@@ -634,7 +799,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="9">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -749,7 +914,9 @@
       <c r="F14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:8">
@@ -757,10 +924,307 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>18</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>21</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>23</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
         <v>25</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>26</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>27</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>28</v>
+      </c>
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/backend/uploads/import_nilai/nilai.xlsx
+++ b/backend/uploads/import_nilai/nilai.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t>UNIVERSITAS SEBELAS MARET</t>
   </si>
@@ -44,13 +44,13 @@
     <t>Kode Mata Kuliah</t>
   </si>
   <si>
-    <t>EE0101-19</t>
+    <t>EE0104-19</t>
   </si>
   <si>
     <t>Nama Mata Kuliah</t>
   </si>
   <si>
-    <t>Kalkulus I</t>
+    <t>Aljabar Linear</t>
   </si>
   <si>
     <t>Kelas</t>
@@ -65,7 +65,7 @@
     <t>Dr.Ir. Augustinus Sujono M.T.</t>
   </si>
   <si>
-    <t>9vbZijJ3Q+WxO+coLS2cRw==</t>
+    <t>I8860a5k8kJ8uomjPNjWlQ==</t>
   </si>
   <si>
     <t>No</t>
@@ -92,172 +92,121 @@
     <t>CPMK4</t>
   </si>
   <si>
-    <t>I0715021</t>
-  </si>
-  <si>
-    <t>Mohammad Izzul Mukhtar</t>
-  </si>
-  <si>
-    <t>I0717001</t>
-  </si>
-  <si>
-    <t>Aditya Pratama</t>
-  </si>
-  <si>
-    <t>I0717002</t>
-  </si>
-  <si>
-    <t>Agung Budi Utomo</t>
-  </si>
-  <si>
-    <t>I0717004</t>
-  </si>
-  <si>
-    <t>Alvin Ichwannur Ridho</t>
-  </si>
-  <si>
-    <t>I0717005</t>
-  </si>
-  <si>
-    <t>Arif Wibowo</t>
-  </si>
-  <si>
-    <t>I0717006</t>
-  </si>
-  <si>
-    <t>Athaya Cantia Putri</t>
-  </si>
-  <si>
-    <t>I0717007</t>
-  </si>
-  <si>
-    <t>Attar Al Mufashal Rasyid</t>
-  </si>
-  <si>
-    <t>I0717008</t>
-  </si>
-  <si>
-    <t>Aulia Vici Yunitasari</t>
-  </si>
-  <si>
-    <t>I0717009</t>
-  </si>
-  <si>
-    <t>Bakasrian Fericoari</t>
-  </si>
-  <si>
-    <t>I0717010</t>
-  </si>
-  <si>
-    <t>Banu Maheswara</t>
-  </si>
-  <si>
-    <t>I0717011</t>
-  </si>
-  <si>
-    <t>Bayhaqi Irfani</t>
-  </si>
-  <si>
-    <t>I0717012</t>
-  </si>
-  <si>
-    <t>Berlianne Shanaza Andriany</t>
-  </si>
-  <si>
-    <t>I0717013</t>
-  </si>
-  <si>
-    <t>Bima Damar Jati</t>
-  </si>
-  <si>
-    <t>I0717014</t>
-  </si>
-  <si>
-    <t>Bintar Yudo Sadewo</t>
-  </si>
-  <si>
-    <t>I0717015</t>
-  </si>
-  <si>
-    <t>Fahmi Ismail</t>
-  </si>
-  <si>
-    <t>I0717016</t>
-  </si>
-  <si>
-    <t>Faishal Hanifan Ma`Ruf</t>
-  </si>
-  <si>
-    <t>I0717017</t>
-  </si>
-  <si>
-    <t>Gilang Satria Ajie</t>
-  </si>
-  <si>
-    <t>I0717018</t>
-  </si>
-  <si>
-    <t>Hanifah Yulia</t>
-  </si>
-  <si>
-    <t>I0717021</t>
-  </si>
-  <si>
-    <t>Hisbullah Ahmad Fathoni</t>
-  </si>
-  <si>
-    <t>I0717022</t>
-  </si>
-  <si>
-    <t>Ivan Robi Septian</t>
-  </si>
-  <si>
-    <t>I0717023</t>
-  </si>
-  <si>
-    <t>Kevin Dwiyanto Saputra</t>
-  </si>
-  <si>
-    <t>I0717024</t>
-  </si>
-  <si>
-    <t>M. Iqbal Zidny</t>
-  </si>
-  <si>
-    <t>I0717025</t>
-  </si>
-  <si>
-    <t>M. Maulana Yusuf</t>
-  </si>
-  <si>
-    <t>I0717026</t>
-  </si>
-  <si>
-    <t>Mohammad Raihan H.</t>
-  </si>
-  <si>
-    <t>I0717027</t>
-  </si>
-  <si>
-    <t>Muhammad Al Hamid</t>
-  </si>
-  <si>
-    <t>I0717028</t>
-  </si>
-  <si>
-    <t>Muhammad Ikyu Arqie Ramadhan</t>
-  </si>
-  <si>
-    <t>I0717029</t>
-  </si>
-  <si>
-    <t>Muhammad Renaldy Darmawan</t>
-  </si>
-  <si>
-    <t>I0717030</t>
-  </si>
-  <si>
-    <t>Muhammad Rifai</t>
+    <t>CPMK5</t>
+  </si>
+  <si>
+    <t>I0716001</t>
+  </si>
+  <si>
+    <t>Adip Safiudin</t>
+  </si>
+  <si>
+    <t>I0716002</t>
+  </si>
+  <si>
+    <t>Adrian Seta Ekananda</t>
+  </si>
+  <si>
+    <t>I0716003</t>
+  </si>
+  <si>
+    <t>Afif Yuhendrasmiko</t>
+  </si>
+  <si>
+    <t>I0716004</t>
+  </si>
+  <si>
+    <t>Ahmad Imam Rauyani</t>
+  </si>
+  <si>
+    <t>I0716006</t>
+  </si>
+  <si>
+    <t>Annisa Hanifa</t>
+  </si>
+  <si>
+    <t>I0716009</t>
+  </si>
+  <si>
+    <t>Azis Ubaidilah</t>
+  </si>
+  <si>
+    <t>I0716011</t>
+  </si>
+  <si>
+    <t>Bintang Sujatmiko</t>
+  </si>
+  <si>
+    <t>I0716012</t>
+  </si>
+  <si>
+    <t>Daniel Aquino Purba</t>
+  </si>
+  <si>
+    <t>I0716014</t>
+  </si>
+  <si>
+    <t>Fuad Nur Kuncoro</t>
+  </si>
+  <si>
+    <t>I0716015</t>
+  </si>
+  <si>
+    <t>Ghufron Husnan</t>
+  </si>
+  <si>
+    <t>I0716016</t>
+  </si>
+  <si>
+    <t>Henry Probo Santoso</t>
+  </si>
+  <si>
+    <t>I0716017</t>
+  </si>
+  <si>
+    <t>I Wayan Yoga K</t>
+  </si>
+  <si>
+    <t>I0716018</t>
+  </si>
+  <si>
+    <t>Kevin Sebastian</t>
+  </si>
+  <si>
+    <t>I0716019</t>
+  </si>
+  <si>
+    <t>Krisna Hakim</t>
+  </si>
+  <si>
+    <t>I0716020</t>
+  </si>
+  <si>
+    <t>Miftahuddin Irfani</t>
+  </si>
+  <si>
+    <t>I0716021</t>
+  </si>
+  <si>
+    <t>Mohamad Nisman Falic</t>
+  </si>
+  <si>
+    <t>I0716023</t>
+  </si>
+  <si>
+    <t>Muhammad Fakhri Erri</t>
+  </si>
+  <si>
+    <t>I0716026</t>
+  </si>
+  <si>
+    <t>Musyaffa' Ahmad</t>
+  </si>
+  <si>
+    <t>I0716027</t>
+  </si>
+  <si>
+    <t>Oki Setiawan</t>
   </si>
 </sst>
 </file>
@@ -738,7 +687,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
       <selection activeCell="C5" sqref="C5:H5"/>
@@ -799,7 +748,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="9">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -917,17 +866,19 @@
       <c r="G14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -935,10 +886,10 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -946,10 +897,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -957,10 +908,10 @@
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -968,10 +919,10 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -979,10 +930,10 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -990,10 +941,10 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1001,10 +952,10 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1012,10 +963,10 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1023,10 +974,10 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1034,10 +985,10 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1045,10 +996,10 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1056,10 +1007,10 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1067,10 +1018,10 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1078,10 +1029,10 @@
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1089,10 +1040,10 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1100,10 +1051,10 @@
         <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1111,10 +1062,10 @@
         <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1122,109 +1073,10 @@
         <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34">
-        <v>20</v>
-      </c>
-      <c r="B34" t="s">
         <v>63</v>
-      </c>
-      <c r="C34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35">
-        <v>21</v>
-      </c>
-      <c r="B35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36">
-        <v>22</v>
-      </c>
-      <c r="B36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37">
-        <v>23</v>
-      </c>
-      <c r="B37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38">
-        <v>24</v>
-      </c>
-      <c r="B38" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39">
-        <v>25</v>
-      </c>
-      <c r="B39" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40">
-        <v>26</v>
-      </c>
-      <c r="B40" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41">
-        <v>27</v>
-      </c>
-      <c r="B41" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42">
-        <v>28</v>
-      </c>
-      <c r="B42" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/backend/uploads/import_nilai/nilai.xlsx
+++ b/backend/uploads/import_nilai/nilai.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>UNIVERSITAS SEBELAS MARET</t>
   </si>
@@ -44,13 +44,13 @@
     <t>Kode Mata Kuliah</t>
   </si>
   <si>
-    <t>EE0104-19</t>
+    <t>EE0105-19</t>
   </si>
   <si>
     <t>Nama Mata Kuliah</t>
   </si>
   <si>
-    <t>Aljabar Linear</t>
+    <t>Kimia</t>
   </si>
   <si>
     <t>Kelas</t>
@@ -65,7 +65,7 @@
     <t>Dr.Ir. Augustinus Sujono M.T.</t>
   </si>
   <si>
-    <t>I8860a5k8kJ8uomjPNjWlQ==</t>
+    <t>BVCGKhxyl98Zyv//lWR++A==</t>
   </si>
   <si>
     <t>No</t>
@@ -177,12 +177,6 @@
   </si>
   <si>
     <t>Krisna Hakim</t>
-  </si>
-  <si>
-    <t>I0716020</t>
-  </si>
-  <si>
-    <t>Miftahuddin Irfani</t>
   </si>
   <si>
     <t>I0716021</t>
@@ -687,7 +681,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="1">
       <selection activeCell="C5" sqref="C5:H5"/>
@@ -1066,17 +1060,6 @@
       </c>
       <c r="C32" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33">
-        <v>19</v>
-      </c>
-      <c r="B33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
